--- a/database/industries/folad/folad/product/quarterly_seprated.xlsx
+++ b/database/industries/folad/folad/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\folad\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\folad\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AB41B0-4007-4939-BFD8-41A1088AB887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C7FBA5-58CC-4F29-A715-A54BB2C8F73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="55">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -642,16 +657,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I111"/>
+  <dimension ref="B1:N111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -660,8 +675,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -672,8 +692,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -684,8 +709,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -694,8 +724,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,8 +741,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -718,8 +758,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -728,8 +773,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -750,8 +800,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -760,10 +825,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -772,128 +842,208 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="E12" s="13">
+        <v>1155</v>
+      </c>
+      <c r="F12" s="13">
+        <v>965</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="13">
+        <v>1287</v>
+      </c>
+      <c r="I12" s="13">
+        <v>831</v>
+      </c>
+      <c r="J12" s="13">
+        <v>1482</v>
+      </c>
+      <c r="K12" s="13">
+        <v>1208</v>
+      </c>
+      <c r="L12" s="13">
         <v>1720</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>1145</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>1231</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11">
-        <v>88</v>
+      <c r="E13" s="11">
+        <v>68</v>
+      </c>
+      <c r="F13" s="11">
+        <v>68</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="H13" s="11">
         <v>69</v>
       </c>
       <c r="I13" s="11">
+        <v>69</v>
+      </c>
+      <c r="J13" s="11">
+        <v>66</v>
+      </c>
+      <c r="K13" s="11">
+        <v>87</v>
+      </c>
+      <c r="L13" s="11">
+        <v>88</v>
+      </c>
+      <c r="M13" s="11">
+        <v>69</v>
+      </c>
+      <c r="N13" s="11">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="E14" s="13">
+        <v>377</v>
+      </c>
+      <c r="F14" s="13">
+        <v>370</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="13">
+        <v>352</v>
+      </c>
+      <c r="I14" s="13">
+        <v>371</v>
+      </c>
+      <c r="J14" s="13">
+        <v>378</v>
+      </c>
+      <c r="K14" s="13">
+        <v>357</v>
+      </c>
+      <c r="L14" s="13">
         <v>379</v>
       </c>
-      <c r="H14" s="13">
+      <c r="M14" s="13">
         <v>348</v>
       </c>
-      <c r="I14" s="13">
+      <c r="N14" s="13">
         <v>361</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F15" s="15">
-        <v>0</v>
+        <v>1403</v>
       </c>
       <c r="G15" s="15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15">
+        <v>1708</v>
+      </c>
+      <c r="I15" s="15">
+        <v>1271</v>
+      </c>
+      <c r="J15" s="15">
+        <v>1926</v>
+      </c>
+      <c r="K15" s="15">
+        <v>1652</v>
+      </c>
+      <c r="L15" s="15">
         <v>2187</v>
       </c>
-      <c r="H15" s="15">
+      <c r="M15" s="15">
         <v>1562</v>
       </c>
-      <c r="I15" s="15">
+      <c r="N15" s="15">
         <v>1653</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -902,95 +1052,145 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13">
+        <v>201</v>
+      </c>
+      <c r="F18" s="13">
+        <v>492</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="13">
+        <v>257</v>
+      </c>
+      <c r="I18" s="13">
+        <v>345</v>
+      </c>
+      <c r="J18" s="13">
+        <v>675</v>
+      </c>
+      <c r="K18" s="13">
+        <v>337</v>
+      </c>
+      <c r="L18" s="13">
+        <v>187</v>
+      </c>
+      <c r="M18" s="13">
+        <v>35</v>
+      </c>
+      <c r="N18" s="13">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11">
         <v>14</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="13">
-        <v>187</v>
-      </c>
-      <c r="H18" s="13">
-        <v>35</v>
-      </c>
-      <c r="I18" s="13">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="11">
+      <c r="F19" s="11">
+        <v>24</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="11">
+        <v>11</v>
+      </c>
+      <c r="I19" s="11">
+        <v>7</v>
+      </c>
+      <c r="J19" s="11">
         <v>5</v>
       </c>
-      <c r="H19" s="11">
+      <c r="K19" s="11">
+        <v>4</v>
+      </c>
+      <c r="L19" s="11">
+        <v>5</v>
+      </c>
+      <c r="M19" s="11">
         <v>2</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="13">
-        <v>0</v>
+      <c r="E20" s="13">
+        <v>6</v>
+      </c>
+      <c r="F20" s="13">
+        <v>6</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="H20" s="13">
         <v>0</v>
@@ -998,32 +1198,62 @@
       <c r="I20" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="13">
+        <v>0</v>
+      </c>
+      <c r="K20" s="13">
+        <v>0</v>
+      </c>
+      <c r="L20" s="13">
+        <v>0</v>
+      </c>
+      <c r="M20" s="13">
+        <v>0</v>
+      </c>
+      <c r="N20" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="F21" s="15">
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="G21" s="15">
+        <v>0</v>
+      </c>
+      <c r="H21" s="15">
+        <v>268</v>
+      </c>
+      <c r="I21" s="15">
+        <v>352</v>
+      </c>
+      <c r="J21" s="15">
+        <v>680</v>
+      </c>
+      <c r="K21" s="15">
+        <v>341</v>
+      </c>
+      <c r="L21" s="15">
         <v>192</v>
       </c>
-      <c r="H21" s="15">
+      <c r="M21" s="15">
         <v>37</v>
       </c>
-      <c r="I21" s="15">
+      <c r="N21" s="15">
         <v>278</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1032,34 +1262,54 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -1078,76 +1328,136 @@
       <c r="I24" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="17">
+        <v>0</v>
+      </c>
+      <c r="K24" s="17">
+        <v>0</v>
+      </c>
+      <c r="L24" s="17">
+        <v>0</v>
+      </c>
+      <c r="M24" s="17">
+        <v>0</v>
+      </c>
+      <c r="N24" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D25" s="15"/>
-      <c r="E25" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>13</v>
+      <c r="E25" s="15">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="17">
-        <v>0</v>
-      </c>
-      <c r="H26" s="17">
-        <v>0</v>
+      <c r="E26" s="17">
+        <v>0</v>
+      </c>
+      <c r="F26" s="17">
+        <v>0</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="I26" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="17">
+        <v>0</v>
+      </c>
+      <c r="K26" s="17">
+        <v>0</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+      <c r="M26" s="17">
+        <v>0</v>
+      </c>
+      <c r="N26" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
-        <v>0</v>
+        <v>1821</v>
       </c>
       <c r="F27" s="15">
-        <v>0</v>
+        <v>1925</v>
       </c>
       <c r="G27" s="15">
+        <v>0</v>
+      </c>
+      <c r="H27" s="15">
+        <v>1976</v>
+      </c>
+      <c r="I27" s="15">
+        <v>1623</v>
+      </c>
+      <c r="J27" s="15">
+        <v>2606</v>
+      </c>
+      <c r="K27" s="15">
+        <v>1993</v>
+      </c>
+      <c r="L27" s="15">
         <v>2379</v>
       </c>
-      <c r="H27" s="15">
+      <c r="M27" s="15">
         <v>1599</v>
       </c>
-      <c r="I27" s="15">
+      <c r="N27" s="15">
         <v>1931</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1156,8 +1466,13 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1166,8 +1481,13 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1176,10 +1496,15 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -1198,8 +1523,23 @@
       <c r="I31" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1208,10 +1548,15 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -1220,128 +1565,208 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="11">
-        <v>0</v>
-      </c>
-      <c r="H34" s="11">
-        <v>0</v>
-      </c>
-      <c r="I34" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0</v>
+      </c>
+      <c r="N34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D35" s="13"/>
-      <c r="E35" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="13">
+      <c r="E35" s="13">
+        <v>85898822</v>
+      </c>
+      <c r="F35" s="13">
+        <v>103131028</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="13">
+        <v>212602587</v>
+      </c>
+      <c r="I35" s="13">
+        <v>160533288</v>
+      </c>
+      <c r="J35" s="13">
+        <v>282752102</v>
+      </c>
+      <c r="K35" s="13">
+        <v>241393550</v>
+      </c>
+      <c r="L35" s="13">
         <v>336305979</v>
       </c>
-      <c r="H35" s="13">
+      <c r="M35" s="13">
         <v>216379882</v>
       </c>
-      <c r="I35" s="13">
+      <c r="N35" s="13">
         <v>207430705</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="11">
+      <c r="E36" s="11">
+        <v>8856115</v>
+      </c>
+      <c r="F36" s="11">
+        <v>12061617</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="11">
+        <v>16804832</v>
+      </c>
+      <c r="I36" s="11">
+        <v>18816209</v>
+      </c>
+      <c r="J36" s="11">
+        <v>19642945</v>
+      </c>
+      <c r="K36" s="11">
+        <v>25776470</v>
+      </c>
+      <c r="L36" s="11">
         <v>26716966</v>
       </c>
-      <c r="H36" s="11">
+      <c r="M36" s="11">
         <v>20827324</v>
       </c>
-      <c r="I36" s="11">
+      <c r="N36" s="11">
         <v>18944717</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="13">
+      <c r="E37" s="13">
+        <v>36054335</v>
+      </c>
+      <c r="F37" s="13">
+        <v>50478992</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="13">
+        <v>70815141</v>
+      </c>
+      <c r="I37" s="13">
+        <v>86388484</v>
+      </c>
+      <c r="J37" s="13">
+        <v>90859999</v>
+      </c>
+      <c r="K37" s="13">
+        <v>85809653</v>
+      </c>
+      <c r="L37" s="13">
         <v>87422653</v>
       </c>
-      <c r="H37" s="13">
+      <c r="M37" s="13">
         <v>80865927</v>
       </c>
-      <c r="I37" s="13">
+      <c r="N37" s="13">
         <v>82845173</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15">
-        <v>0</v>
+        <v>130809272</v>
       </c>
       <c r="F38" s="15">
-        <v>0</v>
+        <v>165671637</v>
       </c>
       <c r="G38" s="15">
+        <v>0</v>
+      </c>
+      <c r="H38" s="15">
+        <v>300222560</v>
+      </c>
+      <c r="I38" s="15">
+        <v>265737981</v>
+      </c>
+      <c r="J38" s="15">
+        <v>393255046</v>
+      </c>
+      <c r="K38" s="15">
+        <v>352979673</v>
+      </c>
+      <c r="L38" s="15">
         <v>450445598</v>
       </c>
-      <c r="H38" s="15">
+      <c r="M38" s="15">
         <v>318073133</v>
       </c>
-      <c r="I38" s="15">
+      <c r="N38" s="15">
         <v>309220595</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -1350,95 +1775,145 @@
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="11">
-        <v>0</v>
-      </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-      <c r="I40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+      <c r="N40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D41" s="13"/>
-      <c r="E41" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="13">
+      <c r="E41" s="13">
+        <v>14139728</v>
+      </c>
+      <c r="F41" s="13">
+        <v>51086549</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="13">
+        <v>34479421</v>
+      </c>
+      <c r="I41" s="13">
+        <v>56855559</v>
+      </c>
+      <c r="J41" s="13">
+        <v>105103126</v>
+      </c>
+      <c r="K41" s="13">
+        <v>52446913</v>
+      </c>
+      <c r="L41" s="13">
         <v>29743113</v>
       </c>
-      <c r="H41" s="13">
+      <c r="M41" s="13">
         <v>7589514</v>
       </c>
-      <c r="I41" s="13">
+      <c r="N41" s="13">
         <v>39082807</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D42" s="11"/>
-      <c r="E42" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="11">
+      <c r="E42" s="11">
+        <v>1493292</v>
+      </c>
+      <c r="F42" s="11">
+        <v>3288382</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="11">
+        <v>1951944</v>
+      </c>
+      <c r="I42" s="11">
+        <v>1599884</v>
+      </c>
+      <c r="J42" s="11">
+        <v>1124336</v>
+      </c>
+      <c r="K42" s="11">
+        <v>1148580</v>
+      </c>
+      <c r="L42" s="11">
         <v>1306203</v>
       </c>
-      <c r="H42" s="11">
+      <c r="M42" s="11">
         <v>516161</v>
       </c>
-      <c r="I42" s="11">
+      <c r="N42" s="11">
         <v>396356</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D43" s="13"/>
-      <c r="E43" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="13">
-        <v>0</v>
+      <c r="E43" s="13">
+        <v>490347</v>
+      </c>
+      <c r="F43" s="13">
+        <v>888060</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="H43" s="13">
         <v>0</v>
@@ -1446,32 +1921,62 @@
       <c r="I43" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="13">
+        <v>0</v>
+      </c>
+      <c r="K43" s="13">
+        <v>0</v>
+      </c>
+      <c r="L43" s="13">
+        <v>0</v>
+      </c>
+      <c r="M43" s="13">
+        <v>0</v>
+      </c>
+      <c r="N43" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15">
-        <v>0</v>
+        <v>16123367</v>
       </c>
       <c r="F44" s="15">
-        <v>0</v>
+        <v>55262991</v>
       </c>
       <c r="G44" s="15">
+        <v>0</v>
+      </c>
+      <c r="H44" s="15">
+        <v>36431365</v>
+      </c>
+      <c r="I44" s="15">
+        <v>58455443</v>
+      </c>
+      <c r="J44" s="15">
+        <v>106227462</v>
+      </c>
+      <c r="K44" s="15">
+        <v>53595493</v>
+      </c>
+      <c r="L44" s="15">
         <v>31049316</v>
       </c>
-      <c r="H44" s="15">
+      <c r="M44" s="15">
         <v>8105675</v>
       </c>
-      <c r="I44" s="15">
+      <c r="N44" s="15">
         <v>39479163</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -1480,34 +1985,54 @@
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
@@ -1526,78 +2051,138 @@
       <c r="I47" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="17">
+        <v>0</v>
+      </c>
+      <c r="K47" s="17">
+        <v>0</v>
+      </c>
+      <c r="L47" s="17">
+        <v>0</v>
+      </c>
+      <c r="M47" s="17">
+        <v>0</v>
+      </c>
+      <c r="N47" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D48" s="15"/>
-      <c r="E48" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>13</v>
+      <c r="E48" s="15">
+        <v>0</v>
+      </c>
+      <c r="F48" s="15">
+        <v>0</v>
+      </c>
+      <c r="G48" s="15">
+        <v>0</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N48" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D49" s="17"/>
-      <c r="E49" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="17">
-        <v>0</v>
-      </c>
-      <c r="H49" s="17">
-        <v>0</v>
+      <c r="E49" s="17">
+        <v>0</v>
+      </c>
+      <c r="F49" s="17">
+        <v>0</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="I49" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="17">
+        <v>0</v>
+      </c>
+      <c r="K49" s="17">
+        <v>0</v>
+      </c>
+      <c r="L49" s="17">
+        <v>0</v>
+      </c>
+      <c r="M49" s="17">
+        <v>0</v>
+      </c>
+      <c r="N49" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15">
-        <v>0</v>
+        <v>146932639</v>
       </c>
       <c r="F50" s="15">
-        <v>0</v>
+        <v>220934628</v>
       </c>
       <c r="G50" s="15">
+        <v>0</v>
+      </c>
+      <c r="H50" s="15">
+        <v>336653925</v>
+      </c>
+      <c r="I50" s="15">
+        <v>324193424</v>
+      </c>
+      <c r="J50" s="15">
+        <v>499482508</v>
+      </c>
+      <c r="K50" s="15">
+        <v>406575166</v>
+      </c>
+      <c r="L50" s="15">
         <v>481494914</v>
       </c>
-      <c r="H50" s="15">
+      <c r="M50" s="15">
         <v>326178808</v>
       </c>
-      <c r="I50" s="15">
+      <c r="N50" s="15">
         <v>348699758</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1606,8 +2191,13 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1616,8 +2206,13 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1626,10 +2221,15 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -1648,8 +2248,23 @@
       <c r="I54" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1658,10 +2273,15 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -1670,106 +2290,171 @@
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N57" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
+        <v>74371274459</v>
+      </c>
+      <c r="F58" s="13">
+        <v>106871531606</v>
+      </c>
+      <c r="G58" s="13">
+        <v>135708221507</v>
+      </c>
+      <c r="H58" s="13">
+        <v>165192375291</v>
+      </c>
+      <c r="I58" s="13">
+        <v>193180851986</v>
+      </c>
+      <c r="J58" s="13">
         <v>190790892038</v>
       </c>
-      <c r="F58" s="13">
+      <c r="K58" s="13">
         <v>199829097682</v>
       </c>
-      <c r="G58" s="13">
+      <c r="L58" s="13">
         <v>195526731977</v>
       </c>
-      <c r="H58" s="13">
+      <c r="M58" s="13">
         <v>188978062882</v>
       </c>
-      <c r="I58" s="13">
+      <c r="N58" s="13">
         <v>168505852965</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
+        <v>130236985294</v>
+      </c>
+      <c r="F59" s="11">
+        <v>177376720588</v>
+      </c>
+      <c r="G59" s="11">
+        <v>221312676923</v>
+      </c>
+      <c r="H59" s="11">
+        <v>243548289855</v>
+      </c>
+      <c r="I59" s="11">
+        <v>272698681159</v>
+      </c>
+      <c r="J59" s="11">
         <v>297620378788</v>
       </c>
-      <c r="F59" s="11">
+      <c r="K59" s="11">
         <v>296281264368</v>
       </c>
-      <c r="G59" s="11">
+      <c r="L59" s="11">
         <v>303601886364</v>
       </c>
-      <c r="H59" s="11">
+      <c r="M59" s="11">
         <v>301845275362</v>
       </c>
-      <c r="I59" s="11">
+      <c r="N59" s="11">
         <v>310569131148</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
+        <v>95634840849</v>
+      </c>
+      <c r="F60" s="13">
+        <v>136429708108</v>
+      </c>
+      <c r="G60" s="13">
+        <v>168374903683</v>
+      </c>
+      <c r="H60" s="13">
+        <v>201179377841</v>
+      </c>
+      <c r="I60" s="13">
+        <v>232853056604</v>
+      </c>
+      <c r="J60" s="13">
         <v>240370367725</v>
       </c>
-      <c r="F60" s="13">
+      <c r="K60" s="13">
         <v>240363173669</v>
       </c>
-      <c r="G60" s="13">
+      <c r="L60" s="13">
         <v>230666630607</v>
       </c>
-      <c r="H60" s="13">
+      <c r="M60" s="13">
         <v>232373353448</v>
       </c>
-      <c r="I60" s="13">
+      <c r="N60" s="13">
         <v>229488013850</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -1778,106 +2463,171 @@
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N62" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13">
+        <v>70346905473</v>
+      </c>
+      <c r="F63" s="13">
+        <v>103834449187</v>
+      </c>
+      <c r="G63" s="13">
+        <v>128750826698</v>
+      </c>
+      <c r="H63" s="13">
+        <v>134161171206</v>
+      </c>
+      <c r="I63" s="13">
+        <v>164798721739</v>
+      </c>
+      <c r="J63" s="13">
         <v>155708334815</v>
       </c>
-      <c r="F63" s="13">
+      <c r="K63" s="13">
         <v>155628821958</v>
       </c>
-      <c r="G63" s="13">
+      <c r="L63" s="13">
         <v>159054080214</v>
       </c>
-      <c r="H63" s="13">
+      <c r="M63" s="13">
         <v>216843257143</v>
       </c>
-      <c r="I63" s="13">
+      <c r="N63" s="13">
         <v>141093166065</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
+        <v>106663714286</v>
+      </c>
+      <c r="F64" s="11">
+        <v>137015916667</v>
+      </c>
+      <c r="G64" s="11">
+        <v>159449578947</v>
+      </c>
+      <c r="H64" s="11">
+        <v>177449454545</v>
+      </c>
+      <c r="I64" s="11">
+        <v>228554857143</v>
+      </c>
+      <c r="J64" s="11">
         <v>224867200000</v>
       </c>
-      <c r="F64" s="11">
+      <c r="K64" s="11">
         <v>287145000000</v>
       </c>
-      <c r="G64" s="11">
+      <c r="L64" s="11">
         <v>261240600000</v>
       </c>
-      <c r="H64" s="11">
+      <c r="M64" s="11">
         <v>258080500000</v>
       </c>
-      <c r="I64" s="11">
+      <c r="N64" s="11">
         <v>396356000000</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D65" s="13"/>
-      <c r="E65" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>13</v>
+      <c r="E65" s="13">
+        <v>81724500000</v>
+      </c>
+      <c r="F65" s="13">
+        <v>148010000000</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N65" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -1886,32 +2636,52 @@
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N67" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1920,8 +2690,13 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1930,8 +2705,13 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1940,10 +2720,15 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -1962,8 +2747,23 @@
       <c r="I71" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1972,10 +2772,15 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -1984,128 +2789,208 @@
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" s="11">
-        <v>0</v>
-      </c>
-      <c r="H74" s="11">
-        <v>0</v>
-      </c>
-      <c r="I74" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L74" s="11">
+        <v>0</v>
+      </c>
+      <c r="M74" s="11">
+        <v>0</v>
+      </c>
+      <c r="N74" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
-        <v>-115445564</v>
+        <v>-53799073</v>
       </c>
       <c r="F75" s="13">
+        <v>-61198418</v>
+      </c>
+      <c r="G75" s="13">
+        <v>-83647199</v>
+      </c>
+      <c r="H75" s="13">
+        <v>-107572860</v>
+      </c>
+      <c r="I75" s="13">
+        <v>-46565428</v>
+      </c>
+      <c r="J75" s="13">
+        <v>-269583852</v>
+      </c>
+      <c r="K75" s="13">
         <v>-149382935</v>
       </c>
-      <c r="G75" s="13">
+      <c r="L75" s="13">
         <v>-166471460</v>
       </c>
-      <c r="H75" s="13">
+      <c r="M75" s="13">
         <v>-157126933</v>
       </c>
-      <c r="I75" s="13">
+      <c r="N75" s="13">
         <v>-157347707</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
-        <v>-9203584</v>
+        <v>-4087590</v>
       </c>
       <c r="F76" s="11">
+        <v>-5690645</v>
+      </c>
+      <c r="G76" s="11">
+        <v>-6698873</v>
+      </c>
+      <c r="H76" s="11">
+        <v>-7793775</v>
+      </c>
+      <c r="I76" s="11">
+        <v>-5542911</v>
+      </c>
+      <c r="J76" s="11">
+        <v>-22540270</v>
+      </c>
+      <c r="K76" s="11">
         <v>-14315113</v>
       </c>
-      <c r="G76" s="11">
+      <c r="L76" s="11">
         <v>-16030180</v>
       </c>
-      <c r="H76" s="11">
+      <c r="M76" s="11">
         <v>-8291211</v>
       </c>
-      <c r="I76" s="11">
+      <c r="N76" s="11">
         <v>-11665342</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
-        <v>-41004026</v>
+        <v>-16390128</v>
       </c>
       <c r="F77" s="13">
+        <v>-21944525</v>
+      </c>
+      <c r="G77" s="13">
+        <v>-25936332</v>
+      </c>
+      <c r="H77" s="13">
+        <v>-28580923</v>
+      </c>
+      <c r="I77" s="13">
+        <v>-24038337</v>
+      </c>
+      <c r="J77" s="13">
+        <v>-93623286</v>
+      </c>
+      <c r="K77" s="13">
         <v>-45595863</v>
       </c>
-      <c r="G77" s="13">
+      <c r="L77" s="13">
         <v>-50713881</v>
       </c>
-      <c r="H77" s="13">
+      <c r="M77" s="13">
         <v>-31770974</v>
       </c>
-      <c r="I77" s="13">
+      <c r="N77" s="13">
         <v>-46643144</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15">
-        <v>-165653174</v>
+        <v>-74276791</v>
       </c>
       <c r="F78" s="15">
+        <v>-88833588</v>
+      </c>
+      <c r="G78" s="15">
+        <v>-116282404</v>
+      </c>
+      <c r="H78" s="15">
+        <v>-143947558</v>
+      </c>
+      <c r="I78" s="15">
+        <v>-76146676</v>
+      </c>
+      <c r="J78" s="15">
+        <v>-385747408</v>
+      </c>
+      <c r="K78" s="15">
         <v>-209293911</v>
       </c>
-      <c r="G78" s="15">
+      <c r="L78" s="15">
         <v>-233215521</v>
       </c>
-      <c r="H78" s="15">
+      <c r="M78" s="15">
         <v>-197189118</v>
       </c>
-      <c r="I78" s="15">
+      <c r="N78" s="15">
         <v>-215656193</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -2114,95 +2999,145 @@
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" s="11">
-        <v>0</v>
-      </c>
-      <c r="H80" s="11">
-        <v>0</v>
-      </c>
-      <c r="I80" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L80" s="11">
+        <v>0</v>
+      </c>
+      <c r="M80" s="11">
+        <v>0</v>
+      </c>
+      <c r="N80" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
-        <v>-28551483</v>
+        <v>-7107171</v>
       </c>
       <c r="F81" s="13">
+        <v>-21466647</v>
+      </c>
+      <c r="G81" s="13">
+        <v>-25246967</v>
+      </c>
+      <c r="H81" s="13">
+        <v>-19085723</v>
+      </c>
+      <c r="I81" s="13">
+        <v>-20070980</v>
+      </c>
+      <c r="J81" s="13">
+        <v>-67708186</v>
+      </c>
+      <c r="K81" s="13">
         <v>-36130060</v>
       </c>
-      <c r="G81" s="13">
+      <c r="L81" s="13">
         <v>-17011573</v>
       </c>
-      <c r="H81" s="13">
+      <c r="M81" s="13">
         <v>-5202164</v>
       </c>
-      <c r="I81" s="13">
+      <c r="N81" s="13">
         <v>-29970992</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>-630060</v>
+        <v>-654617</v>
       </c>
       <c r="F82" s="11">
+        <v>-1446201</v>
+      </c>
+      <c r="G82" s="11">
+        <v>-1524744</v>
+      </c>
+      <c r="H82" s="11">
+        <v>-1018653</v>
+      </c>
+      <c r="I82" s="11">
+        <v>-466069</v>
+      </c>
+      <c r="J82" s="11">
+        <v>-2114782</v>
+      </c>
+      <c r="K82" s="11">
         <v>-954904</v>
       </c>
-      <c r="G82" s="11">
+      <c r="L82" s="11">
         <v>-737430</v>
       </c>
-      <c r="H82" s="11">
+      <c r="M82" s="11">
         <v>-223122</v>
       </c>
-      <c r="I82" s="11">
+      <c r="N82" s="11">
         <v>-276306</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13">
-        <v>0</v>
+        <v>-235459</v>
       </c>
       <c r="F83" s="13">
-        <v>0</v>
+        <v>-376772</v>
       </c>
       <c r="G83" s="13">
-        <v>0</v>
+        <v>-113940</v>
       </c>
       <c r="H83" s="13">
         <v>0</v>
@@ -2210,32 +3145,62 @@
       <c r="I83" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="13">
+        <v>0</v>
+      </c>
+      <c r="K83" s="13">
+        <v>0</v>
+      </c>
+      <c r="L83" s="13">
+        <v>0</v>
+      </c>
+      <c r="M83" s="13">
+        <v>0</v>
+      </c>
+      <c r="N83" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15">
-        <v>-29181543</v>
+        <v>-7997247</v>
       </c>
       <c r="F84" s="15">
+        <v>-23289620</v>
+      </c>
+      <c r="G84" s="15">
+        <v>-26885651</v>
+      </c>
+      <c r="H84" s="15">
+        <v>-20104376</v>
+      </c>
+      <c r="I84" s="15">
+        <v>-20537049</v>
+      </c>
+      <c r="J84" s="15">
+        <v>-69822968</v>
+      </c>
+      <c r="K84" s="15">
         <v>-37084964</v>
       </c>
-      <c r="G84" s="15">
+      <c r="L84" s="15">
         <v>-17749003</v>
       </c>
-      <c r="H84" s="15">
+      <c r="M84" s="15">
         <v>-5425286</v>
       </c>
-      <c r="I84" s="15">
+      <c r="N84" s="15">
         <v>-30247298</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -2244,34 +3209,54 @@
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N86" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
@@ -2290,37 +3275,67 @@
       <c r="I87" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="17">
+        <v>0</v>
+      </c>
+      <c r="K87" s="17">
+        <v>0</v>
+      </c>
+      <c r="L87" s="17">
+        <v>0</v>
+      </c>
+      <c r="M87" s="17">
+        <v>0</v>
+      </c>
+      <c r="N87" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D88" s="15"/>
-      <c r="E88" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" s="15" t="s">
-        <v>13</v>
+      <c r="E88" s="15">
+        <v>0</v>
+      </c>
+      <c r="F88" s="15">
+        <v>0</v>
+      </c>
+      <c r="G88" s="15">
+        <v>0</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I88" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J88" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K88" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L88" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M88" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N88" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D89" s="17"/>
       <c r="E89" s="17">
@@ -2332,36 +3347,66 @@
       <c r="G89" s="17">
         <v>0</v>
       </c>
-      <c r="H89" s="17">
-        <v>0</v>
+      <c r="H89" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="I89" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="17">
+        <v>0</v>
+      </c>
+      <c r="K89" s="17">
+        <v>0</v>
+      </c>
+      <c r="L89" s="17">
+        <v>0</v>
+      </c>
+      <c r="M89" s="17">
+        <v>0</v>
+      </c>
+      <c r="N89" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15">
-        <v>-194834717</v>
+        <v>-82274038</v>
       </c>
       <c r="F90" s="15">
+        <v>-112123208</v>
+      </c>
+      <c r="G90" s="15">
+        <v>-143168055</v>
+      </c>
+      <c r="H90" s="15">
+        <v>-164051934</v>
+      </c>
+      <c r="I90" s="15">
+        <v>-96683725</v>
+      </c>
+      <c r="J90" s="15">
+        <v>-455570376</v>
+      </c>
+      <c r="K90" s="15">
         <v>-246378875</v>
       </c>
-      <c r="G90" s="15">
+      <c r="L90" s="15">
         <v>-250964524</v>
       </c>
-      <c r="H90" s="15">
+      <c r="M90" s="15">
         <v>-202614404</v>
       </c>
-      <c r="I90" s="15">
+      <c r="N90" s="15">
         <v>-245903491</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2370,8 +3415,13 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2380,8 +3430,13 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2390,10 +3445,15 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -2412,8 +3472,23 @@
       <c r="I94" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M94" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N94" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2422,10 +3497,15 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
@@ -2434,128 +3514,208 @@
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" s="11">
-        <v>0</v>
-      </c>
-      <c r="H97" s="11">
-        <v>0</v>
-      </c>
-      <c r="I97" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L97" s="11">
+        <v>0</v>
+      </c>
+      <c r="M97" s="11">
+        <v>0</v>
+      </c>
+      <c r="N97" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13">
-        <v>110027176</v>
+        <v>32099749</v>
       </c>
       <c r="F98" s="13">
+        <v>41932610</v>
+      </c>
+      <c r="G98" s="13">
+        <v>64003346</v>
+      </c>
+      <c r="H98" s="13">
+        <v>105029727</v>
+      </c>
+      <c r="I98" s="13">
+        <v>113967860</v>
+      </c>
+      <c r="J98" s="13">
+        <v>329024763</v>
+      </c>
+      <c r="K98" s="13">
         <v>92010615</v>
       </c>
-      <c r="G98" s="13">
+      <c r="L98" s="13">
         <v>169834519</v>
       </c>
-      <c r="H98" s="13">
+      <c r="M98" s="13">
         <v>59252949</v>
       </c>
-      <c r="I98" s="13">
+      <c r="N98" s="13">
         <v>50082998</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
-        <v>10439362</v>
+        <v>4768525</v>
       </c>
       <c r="F99" s="11">
+        <v>6370972</v>
+      </c>
+      <c r="G99" s="11">
+        <v>7686451</v>
+      </c>
+      <c r="H99" s="11">
+        <v>9011057</v>
+      </c>
+      <c r="I99" s="11">
+        <v>13273298</v>
+      </c>
+      <c r="J99" s="11">
+        <v>32723717</v>
+      </c>
+      <c r="K99" s="11">
         <v>11461357</v>
       </c>
-      <c r="G99" s="11">
+      <c r="L99" s="11">
         <v>10686786</v>
       </c>
-      <c r="H99" s="11">
+      <c r="M99" s="11">
         <v>12536113</v>
       </c>
-      <c r="I99" s="11">
+      <c r="N99" s="11">
         <v>7279375</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
-        <v>49855973</v>
+        <v>19664207</v>
       </c>
       <c r="F100" s="13">
+        <v>28534467</v>
+      </c>
+      <c r="G100" s="13">
+        <v>33500009</v>
+      </c>
+      <c r="H100" s="13">
+        <v>42234218</v>
+      </c>
+      <c r="I100" s="13">
+        <v>62350147</v>
+      </c>
+      <c r="J100" s="13">
+        <v>154440338</v>
+      </c>
+      <c r="K100" s="13">
         <v>40213790</v>
       </c>
-      <c r="G100" s="13">
+      <c r="L100" s="13">
         <v>36708772</v>
       </c>
-      <c r="H100" s="13">
+      <c r="M100" s="13">
         <v>49094953</v>
       </c>
-      <c r="I100" s="13">
+      <c r="N100" s="13">
         <v>36202029</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15">
-        <v>170322511</v>
+        <v>56532481</v>
       </c>
       <c r="F101" s="15">
+        <v>76838049</v>
+      </c>
+      <c r="G101" s="15">
+        <v>105189806</v>
+      </c>
+      <c r="H101" s="15">
+        <v>156275002</v>
+      </c>
+      <c r="I101" s="15">
+        <v>189591305</v>
+      </c>
+      <c r="J101" s="15">
+        <v>516188818</v>
+      </c>
+      <c r="K101" s="15">
         <v>143685762</v>
       </c>
-      <c r="G101" s="15">
+      <c r="L101" s="15">
         <v>217230077</v>
       </c>
-      <c r="H101" s="15">
+      <c r="M101" s="15">
         <v>120884015</v>
       </c>
-      <c r="I101" s="15">
+      <c r="N101" s="15">
         <v>93564402</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
@@ -2564,95 +3724,145 @@
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" s="11">
-        <v>0</v>
-      </c>
-      <c r="H103" s="11">
-        <v>0</v>
-      </c>
-      <c r="I103" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L103" s="11">
+        <v>0</v>
+      </c>
+      <c r="M103" s="11">
+        <v>0</v>
+      </c>
+      <c r="N103" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D104" s="13"/>
       <c r="E104" s="13">
-        <v>23192470</v>
+        <v>7032557</v>
       </c>
       <c r="F104" s="13">
+        <v>29619902</v>
+      </c>
+      <c r="G104" s="13">
+        <v>29729636</v>
+      </c>
+      <c r="H104" s="13">
+        <v>15393698</v>
+      </c>
+      <c r="I104" s="13">
+        <v>36784578</v>
+      </c>
+      <c r="J104" s="13">
+        <v>75370746</v>
+      </c>
+      <c r="K104" s="13">
         <v>16316853</v>
       </c>
-      <c r="G104" s="13">
+      <c r="L104" s="13">
         <v>12731540</v>
       </c>
-      <c r="H104" s="13">
+      <c r="M104" s="13">
         <v>2387350</v>
       </c>
-      <c r="I104" s="13">
+      <c r="N104" s="13">
         <v>9111815</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11">
-        <v>494276</v>
+        <v>838675</v>
       </c>
       <c r="F105" s="11">
+        <v>1842181</v>
+      </c>
+      <c r="G105" s="11">
+        <v>1504798</v>
+      </c>
+      <c r="H105" s="11">
+        <v>933291</v>
+      </c>
+      <c r="I105" s="11">
+        <v>1133816</v>
+      </c>
+      <c r="J105" s="11">
+        <v>2561383</v>
+      </c>
+      <c r="K105" s="11">
         <v>193676</v>
       </c>
-      <c r="G105" s="11">
+      <c r="L105" s="11">
         <v>568773</v>
       </c>
-      <c r="H105" s="11">
+      <c r="M105" s="11">
         <v>293039</v>
       </c>
-      <c r="I105" s="11">
+      <c r="N105" s="11">
         <v>120050</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="13">
-        <v>0</v>
+        <v>254888</v>
       </c>
       <c r="F106" s="13">
-        <v>0</v>
+        <v>511288</v>
       </c>
       <c r="G106" s="13">
-        <v>0</v>
+        <v>-108101</v>
       </c>
       <c r="H106" s="13">
         <v>0</v>
@@ -2660,32 +3870,62 @@
       <c r="I106" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J106" s="13">
+        <v>0</v>
+      </c>
+      <c r="K106" s="13">
+        <v>0</v>
+      </c>
+      <c r="L106" s="13">
+        <v>0</v>
+      </c>
+      <c r="M106" s="13">
+        <v>0</v>
+      </c>
+      <c r="N106" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
-        <v>23686746</v>
+        <v>8126120</v>
       </c>
       <c r="F107" s="15">
+        <v>31973371</v>
+      </c>
+      <c r="G107" s="15">
+        <v>31126333</v>
+      </c>
+      <c r="H107" s="15">
+        <v>16326989</v>
+      </c>
+      <c r="I107" s="15">
+        <v>37918394</v>
+      </c>
+      <c r="J107" s="15">
+        <v>77932129</v>
+      </c>
+      <c r="K107" s="15">
         <v>16510529</v>
       </c>
-      <c r="G107" s="15">
+      <c r="L107" s="15">
         <v>13300313</v>
       </c>
-      <c r="H107" s="15">
+      <c r="M107" s="15">
         <v>2680389</v>
       </c>
-      <c r="I107" s="15">
+      <c r="N107" s="15">
         <v>9231865</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
@@ -2694,34 +3934,54 @@
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N109" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
@@ -2740,26 +4000,56 @@
       <c r="I110" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="17">
+        <v>0</v>
+      </c>
+      <c r="K110" s="17">
+        <v>0</v>
+      </c>
+      <c r="L110" s="17">
+        <v>0</v>
+      </c>
+      <c r="M110" s="17">
+        <v>0</v>
+      </c>
+      <c r="N110" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
       <c r="E111" s="15">
-        <v>194009257</v>
+        <v>64658601</v>
       </c>
       <c r="F111" s="15">
+        <v>108811420</v>
+      </c>
+      <c r="G111" s="15">
+        <v>136316139</v>
+      </c>
+      <c r="H111" s="15">
+        <v>172601991</v>
+      </c>
+      <c r="I111" s="15">
+        <v>227509699</v>
+      </c>
+      <c r="J111" s="15">
+        <v>594120947</v>
+      </c>
+      <c r="K111" s="15">
         <v>160196291</v>
       </c>
-      <c r="G111" s="15">
+      <c r="L111" s="15">
         <v>230530390</v>
       </c>
-      <c r="H111" s="15">
+      <c r="M111" s="15">
         <v>123564404</v>
       </c>
-      <c r="I111" s="15">
+      <c r="N111" s="15">
         <v>102796267</v>
       </c>
     </row>

--- a/database/industries/folad/folad/product/quarterly_seprated.xlsx
+++ b/database/industries/folad/folad/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\folad\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\folad\folad\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCB2C64-FE67-4DE2-855D-D2CCB8BA9DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163EE28B-B32A-4C05-A9E1-F93D36373648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
